--- a/mock-data/Test Data.xlsx
+++ b/mock-data/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Group-8-Project\mock-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11581BED-C7EA-4DF1-A350-F2B02EC0BB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B0C1F2-A250-4821-8B91-3ED8A25BBD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFD47053-C57A-4404-9CB4-1D2564D4475F}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -155,13 +155,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,7 +487,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/mock-data/Test Data.xlsx
+++ b/mock-data/Test Data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Group-8-Project\mock-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B0C1F2-A250-4821-8B91-3ED8A25BBD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BF38AC-1434-4CCC-AE52-AC1CF97F322B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFD47053-C57A-4404-9CB4-1D2564D4475F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,29 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
-  <si>
-    <t>S.No</t>
-  </si>
-  <si>
-    <t>Card Brand</t>
-  </si>
-  <si>
-    <t>Card Number</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Mock Endpoint</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Visa</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
     <t>mockEndpointSuccess</t>
   </si>
   <si>
@@ -71,27 +56,107 @@
     <t>Discover</t>
   </si>
   <si>
-    <t>Invalid Card Details</t>
-  </si>
-  <si>
     <t>mockEndpointFailureDetails</t>
   </si>
   <si>
-    <t>Insufficient Funds</t>
-  </si>
-  <si>
     <t>mockEndpointFailureFunds</t>
+  </si>
+  <si>
+    <t>ExpirationDate</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>BillingName</t>
+  </si>
+  <si>
+    <t>FundsAvailable</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>CardBrand</t>
+  </si>
+  <si>
+    <t>MockEndpoint</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>Bob Williams</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Emily Davis</t>
+  </si>
+  <si>
+    <t>Frank Miller</t>
+  </si>
+  <si>
+    <t>Grace Lee</t>
+  </si>
+  <si>
+    <t>Henry Wilson</t>
+  </si>
+  <si>
+    <t>Irene Clark</t>
+  </si>
+  <si>
+    <t>Jack Martin</t>
+  </si>
+  <si>
+    <t>Kelly Anderson</t>
+  </si>
+  <si>
+    <t>Laura Thompson</t>
+  </si>
+  <si>
+    <t>Michael Scott</t>
+  </si>
+  <si>
+    <t>Nancy Harris</t>
+  </si>
+  <si>
+    <t>Oliver King</t>
+  </si>
+  <si>
+    <t>Patricia Wright</t>
+  </si>
+  <si>
+    <t>Quentin Taylor</t>
+  </si>
+  <si>
+    <t>Rachel Moore</t>
+  </si>
+  <si>
+    <t>Steve Walker</t>
+  </si>
+  <si>
+    <t>Charlotte Polk</t>
+  </si>
+  <si>
+    <t>Jeffery Blunt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="170" formatCode="mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,11 +178,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,12 +209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -162,13 +216,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -484,243 +542,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEB6A50-9FC4-47CF-A3F5-68A493FCE93D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>4111111111111110</v>
+      </c>
+      <c r="B2" s="9">
+        <v>45992</v>
+      </c>
+      <c r="C2" s="2">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10001</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>5555555555554440</v>
+      </c>
+      <c r="B3" s="9">
+        <v>46023</v>
+      </c>
+      <c r="C3" s="2">
+        <v>456</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10002</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4000</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>378282246310005</v>
+      </c>
+      <c r="B4" s="9">
+        <v>46174</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10003</v>
+      </c>
+      <c r="F4" s="7">
+        <v>6000</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>6011111111111110</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45962</v>
+      </c>
+      <c r="C5" s="2">
+        <v>789</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10004</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5500</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5200828282828210</v>
+      </c>
+      <c r="B6" s="9">
+        <v>46266</v>
+      </c>
+      <c r="C6" s="2">
+        <v>666</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10014</v>
+      </c>
+      <c r="F6" s="7">
+        <v>7000</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>371449635398430</v>
+      </c>
+      <c r="B7" s="9">
+        <v>46054</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10015</v>
+      </c>
+      <c r="F7" s="7">
+        <v>6500</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6011111111111110</v>
+      </c>
+      <c r="B8" s="9">
+        <v>45931</v>
+      </c>
+      <c r="C8" s="2">
+        <v>777</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10016</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7200</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4000000000009990</v>
+      </c>
+      <c r="B9" s="9">
+        <v>45870</v>
+      </c>
+      <c r="C9" s="2">
+        <v>111</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10009</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>2223000048400010</v>
+      </c>
+      <c r="B10" s="9">
+        <v>45717</v>
+      </c>
+      <c r="C10" s="2">
+        <v>222</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10010</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>378734493671000</v>
+      </c>
+      <c r="B11" s="9">
+        <v>45778</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3333</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10011</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>6011000400000000</v>
+      </c>
+      <c r="B12" s="9">
+        <v>45992</v>
+      </c>
+      <c r="C12" s="2">
+        <v>444</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10012</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>4000000000000010</v>
+      </c>
+      <c r="B13" s="9">
+        <v>45839</v>
+      </c>
+      <c r="C13" s="2">
+        <v>555</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10013</v>
+      </c>
+      <c r="F13" s="7">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>5555555555555550</v>
+      </c>
+      <c r="B14" s="9">
+        <v>45778</v>
+      </c>
+      <c r="C14" s="2">
+        <v>999</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10018</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>6011000995500000</v>
+      </c>
+      <c r="B15" s="9">
+        <v>45870</v>
+      </c>
+      <c r="C15" s="2">
+        <v>444</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10020</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4000000000000000</v>
+      </c>
+      <c r="B16" s="9">
+        <v>45170</v>
+      </c>
+      <c r="C16" s="2">
+        <v>321</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10005</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
-        <v>4111111111111110</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>5105105105105100</v>
+      </c>
+      <c r="B17" s="9">
+        <v>45200</v>
+      </c>
+      <c r="C17" s="2">
+        <v>654</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10006</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5555555555554440</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>371449635398431</v>
+      </c>
+      <c r="B18" s="9">
+        <v>44652</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4321</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10007</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2500</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6">
-        <v>378282246310005</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="H18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>6011000990139420</v>
+      </c>
+      <c r="B19" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C19" s="2">
+        <v>987</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10008</v>
+      </c>
+      <c r="F19" s="7">
+        <v>3500</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6011111111111110</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="26.4">
-      <c r="A6" s="2">
+      <c r="H19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>4000000000000020</v>
+      </c>
+      <c r="B20" s="9">
+        <v>45231</v>
+      </c>
+      <c r="C20" s="2">
+        <v>888</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10017</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5000</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
-        <v>4000000000000000</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="26.4">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5105105105105100</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="26.4">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>371449635398431</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="26.4">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
-        <v>6011000990139420</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>378282246310006</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44713</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4321</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10019</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
-        <v>4000000000009990</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2223000048400010</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6">
-        <v>378734493671000</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6">
-        <v>6011000400000000</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H21" xr:uid="{7FEB6A50-9FC4-47CF-A3F5-68A493FCE93D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
+      <sortCondition descending="1" ref="H1:H21"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
